--- a/Results/PFC3D_results/pfc3d_relL2_tables.xlsx
+++ b/Results/PFC3D_results/pfc3d_relL2_tables.xlsx
@@ -303,10 +303,10 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="F5" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="G5" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -323,7 +323,7 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F6" s="0">
         <v>0.080000000000000002</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="0">
         <v>0.02</v>
